--- a/Code/notebook/Results.xlsx
+++ b/Code/notebook/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究生\IAQF\IAQF2021\Code\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF841FA-DB8A-42FE-82B5-A0B32ABA090B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E56D555-067F-47FF-ADBC-4D5E9EEB0BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,6 +77,28 @@
     <sheet name="3p2 reg coef" sheetId="60" r:id="rId62"/>
     <sheet name="3p2 clf coef" sheetId="61" r:id="rId63"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'1 Crude price gasoline price'!$AA$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'1 Crude price gasoline price'!$AA$4:$AA$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'1 Crude price gasoline price'!$X$4:$X$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'1 Crude price gasoline price'!$Y$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'1 Crude price gasoline price'!$Y$4:$Y$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'1 Crude price gasoline price'!$Z$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'1 Crude price gasoline price'!$Z$4:$Z$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'1 Crude price gasoline price'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -93,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="46">
   <si>
     <t>Regression models</t>
   </si>
@@ -196,11 +218,82 @@
     <t>Period 2 with extra</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>multi_linear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regression comparison results</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification comparison results</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classifier models</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradient_boosting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgboost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaboost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc_linear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc_poly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc_rbf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +332,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +354,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -311,31 +416,371 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA0B1BA"/>
+      <color rgb="FFA0B18A"/>
+      <color rgb="FF9CCB86"/>
+      <color rgb="FFEEB479"/>
+      <color rgb="FFE9E29C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -610,25 +1055,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
+      <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="8"/>
+    <col min="19" max="19" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="16.4140625" style="13" customWidth="1"/>
+    <col min="25" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,11 +1095,17 @@
       <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,20 +1127,32 @@
       <c r="H3">
         <v>-2.954374707443605E-4</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,23 +1174,38 @@
       <c r="H4">
         <v>0.12184951871360621</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="8">
         <f>B3</f>
         <v>0.28730440940838259</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="8">
         <f>B23</f>
         <v>0.28758919539938332</v>
       </c>
-      <c r="T4" s="6">
-        <f>R4-S4</f>
-        <v>-2.8478599100073554E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4" s="9">
+        <f>S4-R4</f>
+        <v>2.8478599100073554E-4</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>T4</f>
+        <v>2.8478599100073554E-4</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>T26</f>
+        <v>0.10145587948257562</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>T48</f>
+        <v>1.1641059547264077E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,23 +1227,38 @@
       <c r="H5">
         <v>5.2064102331649043E-2</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" ref="R5:R8" si="0">B4</f>
         <v>0.12841043412631989</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="8">
         <f t="shared" ref="S5:S8" si="1">B24</f>
         <v>0.26952072981074032</v>
       </c>
-      <c r="T5" s="6">
-        <f t="shared" ref="T5:T9" si="2">R5-S5</f>
-        <v>-0.14111029568442043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="9">
+        <f t="shared" ref="T5:T9" si="2">S5-R5</f>
+        <v>0.14111029568442043</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" ref="Y5:Y9" si="3">T5</f>
+        <v>0.14111029568442043</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" ref="Z5:Z9" si="4">T27</f>
+        <v>0.33341119833367783</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA9" si="5">T49</f>
+        <v>1.7565905638414203E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,23 +1280,38 @@
       <c r="H6">
         <v>0.17191226780414581</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="8">
         <f t="shared" si="0"/>
         <v>0.25642604639585093</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="8">
         <f t="shared" si="1"/>
         <v>0.19666269292093311</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="9">
         <f t="shared" si="2"/>
-        <v>5.9763353474917819E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-5.9763353474917819E-2</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="3"/>
+        <v>-5.9763353474917819E-2</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="4"/>
+        <v>0.52793387474810216</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="5"/>
+        <v>4.9788657426528826E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,40 +1333,70 @@
       <c r="H7">
         <v>0.1041688515753847</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
         <v>8.7072323719336597E-2</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <f t="shared" si="1"/>
         <v>0.19198150520100371</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <f t="shared" si="2"/>
-        <v>-0.10490918148166711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q8" s="1" t="s">
+        <v>0.10490918148166711</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10490918148166711</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="4"/>
+        <v>0.43319949606478569</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="5"/>
+        <v>3.0587769702086098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <f t="shared" si="0"/>
         <v>0.16666176752682571</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <f t="shared" si="1"/>
         <v>0.13714301192514761</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="9">
         <f t="shared" si="2"/>
-        <v>2.9518755601678104E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-2.9518755601678104E-2</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.9518755601678104E-2</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="4"/>
+        <v>-4.3275285811208486E-2</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="5"/>
+        <v>-2.1874618031961446E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,23 +1415,38 @@
       <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="10">
         <f>AVERAGE(R4:R8)</f>
         <v>0.18517499623534314</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="10">
         <f>AVERAGE(S4:S8)</f>
         <v>0.21657942705144162</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="11">
         <f t="shared" si="2"/>
-        <v>-3.1404430816098478E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.1404430816098478E-2</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="3"/>
+        <v>3.1404430816098478E-2</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.27054503256358664</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="5"/>
+        <v>8.5797965196910964E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -913,7 +1469,7 @@
         <v>0.1211480884991448</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,20 +1491,26 @@
       <c r="H11">
         <v>-7.6323581919680739E-3</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -970,23 +1532,35 @@
       <c r="H12">
         <v>0.1437720006623931</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="8">
         <f>B10</f>
         <v>0.6462585034013606</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="8">
         <f>B30</f>
         <v>0.69387755102040816</v>
       </c>
-      <c r="T12" s="6">
-        <f>R12-S12</f>
-        <v>-4.7619047619047561E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" s="9">
+        <f>S12-R12</f>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,23 +1582,38 @@
       <c r="H13">
         <v>0.14703173935413361</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R21" si="3">B11</f>
+      <c r="R13" s="8">
+        <f t="shared" ref="R13:R21" si="6">B11</f>
         <v>0.70748299319727892</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13:S21" si="4">B31</f>
+      <c r="S13" s="8">
+        <f t="shared" ref="S13:S21" si="7">B31</f>
         <v>0.69387755102040816</v>
       </c>
-      <c r="T13" s="6">
-        <f t="shared" ref="T13:T22" si="5">R13-S13</f>
-        <v>1.3605442176870763E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" s="9">
+        <f t="shared" ref="T13:T22" si="8">S13-R13</f>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>T12</f>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="Z13" s="16">
+        <f>T34</f>
+        <v>3.1629701060752136E-2</v>
+      </c>
+      <c r="AA13" s="16">
+        <f>T56</f>
+        <v>2.352941176470591E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,23 +1635,38 @@
       <c r="H14">
         <v>0.12</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
+      <c r="R14" s="8">
+        <f t="shared" si="6"/>
         <v>0.63265306122448983</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
+      <c r="S14" s="8">
+        <f t="shared" si="7"/>
         <v>0.65306122448979587</v>
       </c>
-      <c r="T14" s="6">
-        <f t="shared" si="5"/>
-        <v>-2.0408163265306034E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" s="9">
+        <f t="shared" si="8"/>
+        <v>2.0408163265306034E-2</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" ref="Y14:Y23" si="9">T13</f>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" ref="Z14:Z23" si="10">T35</f>
+        <v>5.9787849566055873E-2</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" ref="AA14:AA23" si="11">T57</f>
+        <v>1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,152 +1688,257 @@
       <c r="H15">
         <v>-0.1115297439633722</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
+      <c r="R15" s="8">
+        <f t="shared" si="6"/>
         <v>0.62585034013605445</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
+      <c r="S15" s="8">
+        <f t="shared" si="7"/>
         <v>0.65986394557823125</v>
       </c>
-      <c r="T15" s="6">
-        <f t="shared" si="5"/>
-        <v>-3.4013605442176797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="9">
+        <f t="shared" si="8"/>
+        <v>3.4013605442176797E-2</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="9"/>
+        <v>2.0408163265306034E-2</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="10"/>
+        <v>5.9787849566055873E-2</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="11"/>
+        <v>-2.3529411764705799E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16">
         <v>0.69387755102040816</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
+      <c r="R16" s="8">
+        <f t="shared" si="6"/>
         <v>0.67346938775510201</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
+      <c r="S16" s="8">
+        <f t="shared" si="7"/>
         <v>0.65986394557823125</v>
       </c>
-      <c r="T16" s="6">
-        <f t="shared" si="5"/>
-        <v>1.3605442176870763E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16" s="9">
+        <f t="shared" si="8"/>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="9"/>
+        <v>3.4013605442176797E-2</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="10"/>
+        <v>0.1207328833172614</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17">
         <v>0.69387755102040816</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
+      <c r="R17" s="8">
+        <f t="shared" si="6"/>
         <v>0.70068027210884354</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
+      <c r="S17" s="8">
+        <f t="shared" si="7"/>
         <v>0.70068027210884354</v>
       </c>
-      <c r="T17" s="6">
-        <f t="shared" si="5"/>
+      <c r="T17" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="9"/>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="10"/>
+        <v>0.1324975891996143</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="11"/>
+        <v>-4.7058823529411709E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18">
         <v>0.68027210884353739</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
+      <c r="R18" s="8">
+        <f t="shared" si="6"/>
         <v>0.69387755102040816</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
+      <c r="S18" s="8">
+        <f t="shared" si="7"/>
         <v>0.70748299319727892</v>
       </c>
-      <c r="T18" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.3605442176870763E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18" s="9">
+        <f t="shared" si="8"/>
+        <v>1.3605442176870763E-2</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="10"/>
+        <v>7.3674059787849577E-2</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="11"/>
+        <v>1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19">
         <v>0.69387757778167725</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="3"/>
+      <c r="R19" s="8">
+        <f t="shared" si="6"/>
         <v>0.69387755102040816</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
+      <c r="S19" s="8">
+        <f t="shared" si="7"/>
         <v>0.70068027210884354</v>
       </c>
-      <c r="T19" s="6">
-        <f t="shared" si="5"/>
-        <v>-6.8027210884353817E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q20" s="1" t="s">
+      <c r="T19" s="9">
+        <f t="shared" si="8"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="16">
+        <f t="shared" si="9"/>
+        <v>1.3605442176870763E-2</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="10"/>
+        <v>1.9864995178399236E-2</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
+      <c r="R20" s="8">
+        <f t="shared" si="6"/>
         <v>0.68027210884353739</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
+      <c r="S20" s="8">
+        <f t="shared" si="7"/>
         <v>0.68027210884353739</v>
       </c>
-      <c r="T20" s="6">
-        <f t="shared" si="5"/>
+      <c r="T20" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="9"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="10"/>
+        <v>8.5438765670202588E-2</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="3"/>
+      <c r="R21" s="8">
+        <f t="shared" si="6"/>
         <v>0.69387757778167725</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="4"/>
+      <c r="S21" s="8">
+        <f t="shared" si="7"/>
         <v>0.70748299360275269</v>
       </c>
-      <c r="T21" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.3605415821075439E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21" s="9">
+        <f t="shared" si="8"/>
+        <v>1.3605415821075439E-2</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="10"/>
+        <v>7.6181292189006711E-2</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,23 +1966,38 @@
       <c r="K22" s="1">
         <v>6</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="10">
         <f>AVERAGE(R12:R21)</f>
         <v>0.67482993464891616</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="10">
         <f>AVERAGE(S12:S21)</f>
         <v>0.68571428575483306</v>
       </c>
-      <c r="T22" s="7">
-        <f t="shared" si="5"/>
-        <v>-1.0884351105916901E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="11">
+        <f t="shared" si="8"/>
+        <v>1.0884351105916901E-2</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="9"/>
+        <v>1.3605415821075439E-2</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="10"/>
+        <v>0.14175510406494141</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1764705181121826E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1304,8 +2028,23 @@
       <c r="K23">
         <v>-1.9250324090650159E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="18">
+        <f t="shared" si="9"/>
+        <v>1.0884351105916901E-2</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="10"/>
+        <v>8.0135008960013909E-2</v>
+      </c>
+      <c r="AA23" s="18">
+        <f>T66</f>
+        <v>-7.01231295252569E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1336,11 +2075,11 @@
       <c r="K24">
         <v>7.3821030926975326E-2</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1371,20 +2110,20 @@
       <c r="K25">
         <v>4.6261946151958042E-2</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1415,23 +2154,23 @@
       <c r="K26">
         <v>0.13968229293823239</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="8">
         <f>B43</f>
         <v>0.36101131318651758</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="8">
         <f>B63</f>
         <v>0.4624671926690932</v>
       </c>
-      <c r="T26" s="6">
-        <f>R26-S26</f>
-        <v>-0.10145587948257562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26" s="9">
+        <f>S26-R26</f>
+        <v>0.10145587948257562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1462,40 +2201,40 @@
       <c r="K27">
         <v>0.19547564212613899</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R30" si="6">B44</f>
+      <c r="Q27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" ref="R27:R30" si="12">B44</f>
         <v>0.1017592752169192</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S30" si="7">B64</f>
+      <c r="S27" s="8">
+        <f t="shared" ref="S27:S30" si="13">B64</f>
         <v>0.43517047355059701</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" ref="T27:T30" si="8">R27-S27</f>
-        <v>-0.33341119833367783</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q28" s="1" t="s">
+      <c r="T27" s="9">
+        <f t="shared" ref="T27:T31" si="14">S27-R27</f>
+        <v>0.33341119833367783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
+      <c r="R28" s="8">
+        <f t="shared" si="12"/>
         <v>-6.1454695908890189E-2</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
+      <c r="S28" s="8">
+        <f t="shared" si="13"/>
         <v>0.46647917883921203</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" si="8"/>
-        <v>-0.52793387474810216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T28" s="9">
+        <f t="shared" si="14"/>
+        <v>0.52793387474810216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1523,23 +2262,23 @@
       <c r="K29" s="1">
         <v>6</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="6"/>
+      <c r="R29" s="8">
+        <f t="shared" si="12"/>
         <v>-4.6218845406195593E-2</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
+      <c r="S29" s="8">
+        <f t="shared" si="13"/>
         <v>0.38698065065859011</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" si="8"/>
-        <v>-0.43319949606478569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29" s="9">
+        <f t="shared" si="14"/>
+        <v>0.43319949606478569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1570,23 +2309,23 @@
       <c r="K30">
         <v>8.4769587601105797E-2</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="6"/>
+      <c r="R30" s="8">
+        <f t="shared" si="12"/>
         <v>0.34656167462242721</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="7"/>
+      <c r="S30" s="8">
+        <f t="shared" si="13"/>
         <v>0.30328638881121872</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="8"/>
-        <v>4.3275285811208486E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" s="9">
+        <f t="shared" si="14"/>
+        <v>-4.3275285811208486E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1617,23 +2356,23 @@
       <c r="K31">
         <v>-0.1025158881983466</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="10">
         <f>AVERAGE(R26:R30)</f>
         <v>0.14033174434215562</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="10">
         <f>AVERAGE(S26:S30)</f>
         <v>0.41087677690574226</v>
       </c>
-      <c r="T31" s="7">
-        <f>R31-S31</f>
-        <v>-0.27054503256358664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31" s="11">
+        <f t="shared" si="14"/>
+        <v>0.27054503256358664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1696,13 +2435,13 @@
       <c r="K33">
         <v>9.8548717796802521E-2</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -1740,20 +2479,20 @@
       <c r="K34">
         <v>0.06</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34">
+      <c r="Q34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="8">
         <f>B50</f>
         <v>0.72131147540983609</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="8">
         <f>B70</f>
         <v>0.75294117647058822</v>
       </c>
-      <c r="T34" s="6">
-        <f>R34-S34</f>
-        <v>-3.1629701060752136E-2</v>
+      <c r="T34" s="9">
+        <f>S34-R34</f>
+        <v>3.1629701060752136E-2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -1787,20 +2526,20 @@
       <c r="K35">
         <v>-0.2503579665053024</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R35">
-        <f t="shared" ref="R35:R43" si="9">B51</f>
+      <c r="R35" s="8">
+        <f t="shared" ref="R35:R43" si="15">B51</f>
         <v>0.70491803278688525</v>
       </c>
-      <c r="S35">
-        <f t="shared" ref="S35:S43" si="10">B71</f>
+      <c r="S35" s="8">
+        <f t="shared" ref="S35:S43" si="16">B71</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T35" s="6">
-        <f t="shared" ref="T35:T44" si="11">R35-S35</f>
-        <v>-5.9787849566055873E-2</v>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35:T44" si="17">S35-R35</f>
+        <v>5.9787849566055873E-2</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -1810,20 +2549,20 @@
       <c r="B36">
         <v>0.70748299319727892</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
+      <c r="R36" s="8">
+        <f t="shared" si="15"/>
         <v>0.70491803278688525</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
+      <c r="S36" s="8">
+        <f t="shared" si="16"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T36" s="6">
-        <f t="shared" si="11"/>
-        <v>-5.9787849566055873E-2</v>
+      <c r="T36" s="9">
+        <f t="shared" si="17"/>
+        <v>5.9787849566055873E-2</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -1833,20 +2572,20 @@
       <c r="B37">
         <v>0.70068027210884354</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
+      <c r="R37" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
+      <c r="S37" s="8">
+        <f t="shared" si="16"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="T37" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.1207328833172614</v>
+      <c r="T37" s="9">
+        <f t="shared" si="17"/>
+        <v>0.1207328833172614</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -1856,20 +2595,20 @@
       <c r="B38">
         <v>0.68027210884353739</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
+      <c r="R38" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
+      <c r="S38" s="8">
+        <f t="shared" si="16"/>
         <v>0.78823529411764703</v>
       </c>
-      <c r="T38" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.1324975891996143</v>
+      <c r="T38" s="9">
+        <f t="shared" si="17"/>
+        <v>0.1324975891996143</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -1879,57 +2618,57 @@
       <c r="B39">
         <v>0.70748299360275269</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="9"/>
+      <c r="R39" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="10"/>
+      <c r="S39" s="8">
+        <f t="shared" si="16"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="T39" s="10">
-        <f t="shared" si="11"/>
-        <v>-7.3674059787849577E-2</v>
+      <c r="T39" s="9">
+        <f t="shared" si="17"/>
+        <v>7.3674059787849577E-2</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="9"/>
+      <c r="R40" s="8">
+        <f t="shared" si="15"/>
         <v>0.72131147540983609</v>
       </c>
-      <c r="S40">
-        <f t="shared" si="10"/>
+      <c r="S40" s="8">
+        <f t="shared" si="16"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T40" s="6">
-        <f t="shared" si="11"/>
-        <v>-1.9864995178399236E-2</v>
+      <c r="T40" s="9">
+        <f t="shared" si="17"/>
+        <v>1.9864995178399236E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="9"/>
+      <c r="R41" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="10"/>
+      <c r="S41" s="8">
+        <f t="shared" si="16"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T41" s="6">
-        <f t="shared" si="11"/>
-        <v>-8.5438765670202588E-2</v>
+      <c r="T41" s="9">
+        <f t="shared" si="17"/>
+        <v>8.5438765670202588E-2</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -1960,20 +2699,20 @@
       <c r="K42" s="1">
         <v>6</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="9"/>
+      <c r="R42" s="8">
+        <f t="shared" si="15"/>
         <v>0.68852459016393441</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="10"/>
+      <c r="S42" s="8">
+        <f t="shared" si="16"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T42" s="6">
-        <f t="shared" si="11"/>
-        <v>-7.6181292189006711E-2</v>
+      <c r="T42" s="9">
+        <f t="shared" si="17"/>
+        <v>7.6181292189006711E-2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -2007,20 +2746,20 @@
       <c r="K43">
         <v>1.749984107590116E-4</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="9"/>
+      <c r="R43" s="8">
+        <f t="shared" si="15"/>
         <v>0.62295079231262207</v>
       </c>
-      <c r="S43">
-        <f t="shared" si="10"/>
+      <c r="S43" s="8">
+        <f t="shared" si="16"/>
         <v>0.76470589637756348</v>
       </c>
-      <c r="T43" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.14175510406494141</v>
+      <c r="T43" s="9">
+        <f t="shared" si="17"/>
+        <v>0.14175510406494141</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -2054,20 +2793,20 @@
       <c r="K44">
         <v>3.7585465149125377E-2</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="10">
         <f>AVERAGE(R34:R43)</f>
         <v>0.67868852185421302</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="10">
         <f>AVERAGE(S34:S43)</f>
         <v>0.75882353081422693</v>
       </c>
-      <c r="T44" s="7">
-        <f t="shared" si="11"/>
-        <v>-8.0135008960013909E-2</v>
+      <c r="T44" s="11">
+        <f t="shared" si="17"/>
+        <v>8.0135008960013909E-2</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -2133,7 +2872,7 @@
       <c r="K46">
         <v>7.9634219408035278E-2</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2168,13 +2907,13 @@
       <c r="K47">
         <v>6.2496660774109612E-2</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T47" s="5" t="s">
@@ -2182,20 +2921,20 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="8">
         <f>B63</f>
         <v>0.4624671926690932</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="8">
         <f>B83</f>
         <v>0.47410825221635727</v>
       </c>
-      <c r="T48" s="6">
-        <f>R48-S48</f>
-        <v>-1.1641059547264077E-2</v>
+      <c r="T48" s="9">
+        <f>S48-R48</f>
+        <v>1.1641059547264077E-2</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -2226,20 +2965,20 @@
       <c r="K49" s="1">
         <v>6</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49">
+      <c r="Q49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="8">
         <f>B64</f>
         <v>0.43517047355059701</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="8">
         <f>B84</f>
         <v>0.45273637918901122</v>
       </c>
-      <c r="T49" s="6">
-        <f t="shared" ref="T49:T66" si="12">R49-S49</f>
-        <v>-1.7565905638414203E-2</v>
+      <c r="T49" s="9">
+        <f t="shared" ref="T49:T53" si="18">S49-R49</f>
+        <v>1.7565905638414203E-2</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -2273,20 +3012,20 @@
       <c r="K50">
         <v>8.6736348263124707E-2</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="8">
         <f>B65</f>
         <v>0.46647917883921203</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="8">
         <f>B85</f>
         <v>0.47145804458186491</v>
       </c>
-      <c r="T50" s="6">
-        <f t="shared" si="12"/>
-        <v>-4.9788657426528826E-3</v>
+      <c r="T50" s="9">
+        <f t="shared" si="18"/>
+        <v>4.9788657426528826E-3</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -2320,20 +3059,20 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="8">
         <f>B66</f>
         <v>0.38698065065859011</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="8">
         <f>B86</f>
         <v>0.41756842036067621</v>
       </c>
-      <c r="T51" s="6">
-        <f t="shared" si="12"/>
-        <v>-3.0587769702086098E-2</v>
+      <c r="T51" s="9">
+        <f t="shared" si="18"/>
+        <v>3.0587769702086098E-2</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -2367,20 +3106,20 @@
       <c r="K52">
         <v>4.7385571947896103E-2</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="8">
         <f>B67</f>
         <v>0.30328638881121872</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="8">
         <f>B87</f>
         <v>0.28141177077925728</v>
       </c>
-      <c r="T52" s="6">
-        <f t="shared" si="12"/>
-        <v>2.1874618031961446E-2</v>
+      <c r="T52" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.1874618031961446E-2</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -2414,20 +3153,20 @@
       <c r="K53">
         <v>8.0151021480560303E-2</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="7">
         <f>AVERAGE(R48:R52)</f>
         <v>0.41087677690574226</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="7">
         <f>AVERAGE(S48:S52)</f>
         <v>0.41945657342543335</v>
       </c>
-      <c r="T53" s="7">
-        <f t="shared" si="12"/>
-        <v>-8.5797965196910964E-3</v>
+      <c r="T53" s="11">
+        <f t="shared" si="18"/>
+        <v>8.5797965196910964E-3</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -2493,13 +3232,13 @@
       <c r="K55">
         <v>3.4039763897598628E-2</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T55" s="5" t="s">
@@ -2513,20 +3252,20 @@
       <c r="B56">
         <v>0.72131147540983609</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R56">
-        <f t="shared" ref="R56:R65" si="13">B70</f>
+      <c r="Q56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56:R65" si="19">B70</f>
         <v>0.75294117647058822</v>
       </c>
-      <c r="S56">
-        <f t="shared" ref="S56:S65" si="14">B90</f>
+      <c r="S56" s="8">
+        <f t="shared" ref="S56:S65" si="20">B90</f>
         <v>0.77647058823529413</v>
       </c>
-      <c r="T56" s="6">
-        <f t="shared" si="12"/>
-        <v>-2.352941176470591E-2</v>
+      <c r="T56" s="9">
+        <f>S56-R56</f>
+        <v>2.352941176470591E-2</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -2536,20 +3275,20 @@
       <c r="B57">
         <v>0.65573770491803274</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="13"/>
+      <c r="R57" s="8">
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="14"/>
+      <c r="S57" s="8">
+        <f t="shared" si="20"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="T57" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.176470588235301E-2</v>
+      <c r="T57" s="9">
+        <f t="shared" ref="T57:T66" si="21">S57-R57</f>
+        <v>1.176470588235301E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -2559,20 +3298,20 @@
       <c r="B58">
         <v>0.68852459016393441</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="13"/>
+      <c r="R58" s="8">
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="14"/>
+      <c r="S58" s="8">
+        <f t="shared" si="20"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T58" s="6">
-        <f t="shared" si="12"/>
-        <v>2.3529411764705799E-2</v>
+      <c r="T58" s="9">
+        <f t="shared" si="21"/>
+        <v>-2.3529411764705799E-2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -2582,57 +3321,57 @@
       <c r="B59">
         <v>0.62295079231262207</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="13"/>
+      <c r="R59" s="8">
+        <f t="shared" si="19"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="14"/>
+      <c r="S59" s="8">
+        <f t="shared" si="20"/>
         <v>0.78823529411764703</v>
       </c>
-      <c r="T59" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.1764705882352899E-2</v>
+      <c r="T59" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="13"/>
+      <c r="R60" s="8">
+        <f t="shared" si="19"/>
         <v>0.78823529411764703</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="14"/>
+      <c r="S60" s="8">
+        <f t="shared" si="20"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T60" s="6">
-        <f t="shared" si="12"/>
-        <v>4.7058823529411709E-2</v>
+      <c r="T60" s="9">
+        <f t="shared" si="21"/>
+        <v>-4.7058823529411709E-2</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="13"/>
+      <c r="R61" s="8">
+        <f t="shared" si="19"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="14"/>
+      <c r="S61" s="8">
+        <f t="shared" si="20"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T61" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.176470588235301E-2</v>
+      <c r="T61" s="9">
+        <f t="shared" si="21"/>
+        <v>1.176470588235301E-2</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -2663,19 +3402,19 @@
       <c r="K62" s="1">
         <v>6</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="13"/>
+      <c r="R62" s="8">
+        <f t="shared" si="19"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="14"/>
+      <c r="S62" s="8">
+        <f t="shared" si="20"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T62" s="6">
-        <f t="shared" si="12"/>
+      <c r="T62" s="9">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,20 +3449,20 @@
       <c r="K63">
         <v>-1.0930990256244721E-3</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="13"/>
+      <c r="R63" s="8">
+        <f t="shared" si="19"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="14"/>
+      <c r="S63" s="8">
+        <f t="shared" si="20"/>
         <v>0.75294117647058822</v>
       </c>
-      <c r="T63" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.1764705882352899E-2</v>
+      <c r="T63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -2757,20 +3496,20 @@
       <c r="K64">
         <v>0.13826121807394809</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R64">
-        <f t="shared" si="13"/>
+      <c r="R64" s="8">
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="14"/>
+      <c r="S64" s="8">
+        <f t="shared" si="20"/>
         <v>0.75294117647058822</v>
       </c>
-      <c r="T64" s="6">
-        <f t="shared" si="12"/>
-        <v>1.1764705882352899E-2</v>
+      <c r="T64" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -2804,20 +3543,20 @@
       <c r="K65">
         <v>0.1622465319069504</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
+      <c r="R65" s="8">
+        <f t="shared" si="19"/>
         <v>0.76470589637756348</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="14"/>
+      <c r="S65" s="8">
+        <f t="shared" si="20"/>
         <v>0.7764706015586853</v>
       </c>
-      <c r="T65" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.1764705181121826E-2</v>
+      <c r="T65" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1764705181121826E-2</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -2851,20 +3590,20 @@
       <c r="K66">
         <v>0.13999547064304349</v>
       </c>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R66" s="11">
+      <c r="R66" s="7">
         <f>AVERAGE(R56:R65)</f>
         <v>0.75882353081422693</v>
       </c>
-      <c r="S66" s="11">
+      <c r="S66" s="7">
         <f>AVERAGE(S56:S65)</f>
         <v>0.7588235307441038</v>
       </c>
-      <c r="T66" s="7">
-        <f t="shared" si="12"/>
-        <v>7.01231295252569E-11</v>
+      <c r="T66" s="11">
+        <f t="shared" si="21"/>
+        <v>-7.01231295252569E-11</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -3188,10 +3927,10 @@
       <c r="L82" s="1">
         <v>7</v>
       </c>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -3399,10 +4138,10 @@
       <c r="L89" s="1">
         <v>7</v>
       </c>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
@@ -3647,7 +4386,37 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X11:AA11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5062,25 +5831,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F2C74-67E2-41B6-BCA2-F1E8699EEDF7}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="8"/>
+    <col min="19" max="19" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.4140625" style="13" customWidth="1"/>
+    <col min="25" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5102,11 +5874,17 @@
       <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5131,20 +5909,32 @@
       <c r="I3">
         <v>3.695227558787238E-3</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5169,23 +5959,38 @@
       <c r="I4">
         <v>8.6502325209089168E-2</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="8">
         <f>B3</f>
         <v>0.31876260434317449</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="8">
         <f>B23</f>
         <v>0.31558600921245661</v>
       </c>
-      <c r="T4" s="6">
-        <f>R4-S4</f>
-        <v>3.1765951307178852E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4" s="9">
+        <f>S4-R4</f>
+        <v>-3.1765951307178852E-3</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>T4</f>
+        <v>-3.1765951307178852E-3</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>T26</f>
+        <v>0.14404806259893638</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>T48</f>
+        <v>2.627374785479919E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5210,23 +6015,38 @@
       <c r="I5">
         <v>8.9900926560488592E-2</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" ref="R5:R8" si="0">B4</f>
         <v>0.30565140207904479</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="8">
         <f t="shared" ref="S5:S8" si="1">B24</f>
         <v>0.35997981142937752</v>
       </c>
-      <c r="T5" s="6">
-        <f t="shared" ref="T5:T9" si="2">R5-S5</f>
-        <v>-5.4328409350332729E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="9">
+        <f t="shared" ref="T5:T9" si="2">S5-R5</f>
+        <v>5.4328409350332729E-2</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" ref="Y5:Y9" si="3">T5</f>
+        <v>5.4328409350332729E-2</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" ref="Z5:Z9" si="4">T27</f>
+        <v>0.1318614472696561</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA9" si="5">T49</f>
+        <v>7.2925088157962781E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5251,23 +6071,38 @@
       <c r="I6">
         <v>0.15066644549369809</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="8">
         <f t="shared" si="0"/>
         <v>0.3017192432503889</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="8">
         <f t="shared" si="1"/>
         <v>0.2750461231160386</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="9">
         <f t="shared" si="2"/>
-        <v>2.6673120134350303E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-2.6673120134350303E-2</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.6673120134350303E-2</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="4"/>
+        <v>9.6083519547007279E-2</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="5"/>
+        <v>-2.0110562508807606E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5292,40 +6127,70 @@
       <c r="I7">
         <v>3.8997523639469157E-2</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
         <v>0.17200495128970419</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <f t="shared" si="1"/>
         <v>0.1594922818268836</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <f t="shared" si="2"/>
-        <v>1.2512669462820591E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q8" s="1" t="s">
+        <v>-1.2512669462820591E-2</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.2512669462820591E-2</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="4"/>
+        <v>0.10112083915254129</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="5"/>
+        <v>9.9858383052609023E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <f t="shared" si="0"/>
         <v>0.1636234912370266</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <f t="shared" si="1"/>
         <v>0.1862224652213432</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="9">
         <f t="shared" si="2"/>
-        <v>-2.2598973984316595E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.2598973984316595E-2</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2598973984316595E-2</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="4"/>
+        <v>1.183747235687771E-2</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="5"/>
+        <v>0.17545979309134699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5347,23 +6212,38 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="10">
         <f>AVERAGE(R4:R8)</f>
         <v>0.25235233843986782</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="10">
         <f>AVERAGE(S4:S8)</f>
         <v>0.25926533816121988</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="11">
         <f t="shared" si="2"/>
-        <v>-6.9129997213520644E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.9129997213520644E-3</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="3"/>
+        <v>6.9129997213520644E-3</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="4"/>
+        <v>9.6990268185003781E-2</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="5"/>
+        <v>6.5679087854331797E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5389,7 +6269,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5414,20 +6294,26 @@
       <c r="I11">
         <v>0.34576220037625188</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5452,23 +6338,35 @@
       <c r="I12">
         <v>0.10885414807349859</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="8">
         <f>B10</f>
         <v>0.63945578231292521</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="8">
         <f>B30</f>
         <v>0.68707482993197277</v>
       </c>
-      <c r="T12" s="6">
-        <f>R12-S12</f>
-        <v>-4.7619047619047561E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" s="9">
+        <f>S12-R12</f>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -5493,23 +6391,38 @@
       <c r="I13">
         <v>0.1352270245552063</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R21" si="3">B11</f>
+      <c r="R13" s="8">
+        <f t="shared" ref="R13:R21" si="6">B11</f>
         <v>0.72789115646258506</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13:S21" si="4">B31</f>
+      <c r="S13" s="8">
+        <f t="shared" ref="S13:S21" si="7">B31</f>
         <v>0.72789115646258506</v>
       </c>
-      <c r="T13" s="6">
-        <f t="shared" ref="T13:T22" si="5">R13-S13</f>
+      <c r="T13" s="9">
+        <f>S13-R13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>T12</f>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="Z13" s="16">
+        <f>T34</f>
+        <v>4.0501446480231462E-2</v>
+      </c>
+      <c r="AA13" s="16">
+        <f>T56</f>
+        <v>8.2352941176470518E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -5534,23 +6447,38 @@
       <c r="I14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
+      <c r="R14" s="8">
+        <f t="shared" si="6"/>
         <v>0.72789115646258506</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
+      <c r="S14" s="8">
+        <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="T14" s="6">
-        <f t="shared" si="5"/>
-        <v>1.3605442176870763E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" s="9">
+        <f t="shared" ref="T13:T22" si="8">S14-R14</f>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" ref="Y14:Y23" si="9">T13</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" ref="Z14:Z23" si="10">T35</f>
+        <v>0.10896817743490839</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" ref="AA14:AA23" si="11">T57</f>
+        <v>1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5575,152 +6503,257 @@
       <c r="I15">
         <v>0.32623190165185312</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
+      <c r="R15" s="8">
+        <f t="shared" si="6"/>
         <v>0.70068027210884354</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
+      <c r="S15" s="8">
+        <f t="shared" si="7"/>
         <v>0.70748299319727892</v>
       </c>
-      <c r="T15" s="6">
-        <f t="shared" si="5"/>
-        <v>-6.8027210884353817E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="9">
+        <f t="shared" si="8"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="9"/>
+        <v>-1.3605442176870763E-2</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="10"/>
+        <v>0.18129218900675026</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16">
         <v>0.69387755102040816</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
+      <c r="R16" s="8">
+        <f t="shared" si="6"/>
         <v>0.72108843537414968</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
+      <c r="S16" s="8">
+        <f t="shared" si="7"/>
         <v>0.72108843537414968</v>
       </c>
-      <c r="T16" s="6">
-        <f t="shared" si="5"/>
+      <c r="T16" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="9"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="10"/>
+        <v>0.11571841851494702</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17">
         <v>0.69387755102040816</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
+      <c r="R17" s="8">
+        <f t="shared" si="6"/>
         <v>0.73469387755102045</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
+      <c r="S17" s="8">
+        <f t="shared" si="7"/>
         <v>0.72789115646258506</v>
       </c>
-      <c r="T17" s="6">
-        <f t="shared" si="5"/>
-        <v>6.8027210884353817E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.8027210884353817E-3</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="10"/>
+        <v>5.2266152362584362E-2</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18">
         <v>0.7142857142857143</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
+      <c r="R18" s="8">
+        <f t="shared" si="6"/>
         <v>0.69387755102040816</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
+      <c r="S18" s="8">
+        <f t="shared" si="7"/>
         <v>0.69387755102040816</v>
       </c>
-      <c r="T18" s="6">
-        <f t="shared" si="5"/>
+      <c r="T18" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="9"/>
+        <v>-6.8027210884353817E-3</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="10"/>
+        <v>8.5438765670202588E-2</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="11"/>
+        <v>2.3529411764705799E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19">
         <v>0.73469388484954834</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="3"/>
+      <c r="R19" s="8">
+        <f t="shared" si="6"/>
         <v>0.69387755102040816</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
+      <c r="S19" s="8">
+        <f t="shared" si="7"/>
         <v>0.68707482993197277</v>
       </c>
-      <c r="T19" s="6">
-        <f t="shared" si="5"/>
+      <c r="T19" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.8027210884353817E-3</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="10"/>
+        <v>9.9324975891996181E-2</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="7"/>
+        <v>0.72108843537414968</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="8"/>
         <v>6.8027210884353817E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
-        <v>0.72108843537414968</v>
-      </c>
-      <c r="T20" s="6">
-        <f t="shared" si="5"/>
+      <c r="X20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="9"/>
         <v>-6.8027210884353817E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z20" s="16">
+        <f t="shared" si="10"/>
+        <v>0.20270009643201548</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.176470588235301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="3"/>
+      <c r="R21" s="8">
+        <f t="shared" si="6"/>
         <v>0.73469388484954834</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="4"/>
+      <c r="S21" s="8">
+        <f t="shared" si="7"/>
         <v>0.71428573131561279</v>
       </c>
-      <c r="T21" s="6">
-        <f t="shared" si="5"/>
-        <v>2.0408153533935547E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21" s="9">
+        <f t="shared" si="8"/>
+        <v>-2.0408153533935547E-2</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="16">
+        <f t="shared" si="9"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="10"/>
+        <v>9.0067502410800304E-2</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="11"/>
+        <v>-1.1764705882352899E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -5748,23 +6781,38 @@
       <c r="K22" s="1">
         <v>6</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="10">
         <f>AVERAGE(R12:R21)</f>
         <v>0.70884353814481893</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="10">
         <f>AVERAGE(S12:S21)</f>
         <v>0.710204083335643</v>
       </c>
-      <c r="T22" s="7">
-        <f t="shared" si="5"/>
-        <v>-1.3605451908240696E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3605451908240696E-3</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="9"/>
+        <v>-2.0408153533935547E-2</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="10"/>
+        <v>0.28717458248138428</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="11"/>
+        <v>-0.10588234663009644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -5795,8 +6843,23 @@
       <c r="K23">
         <v>3.6891185952511851E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="18">
+        <f t="shared" si="9"/>
+        <v>1.3605451908240696E-3</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="10"/>
+        <v>0.12634523066858205</v>
+      </c>
+      <c r="AA23" s="18">
+        <f t="shared" si="11"/>
+        <v>-3.5294111335977263E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -5827,11 +6890,11 @@
       <c r="K24">
         <v>5.60617221744827E-2</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5862,20 +6925,20 @@
       <c r="K25">
         <v>5.4897369093800753E-2</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -5906,23 +6969,23 @@
       <c r="K26">
         <v>0.1104806289076805</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="8">
         <f>B43</f>
         <v>0.28811089737459122</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="8">
         <f>B63</f>
         <v>0.4321589599735276</v>
       </c>
-      <c r="T26" s="6">
-        <f>R26-S26</f>
-        <v>-0.14404806259893638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26" s="9">
+        <f>S26-R26</f>
+        <v>0.14404806259893638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -5953,40 +7016,40 @@
       <c r="K27">
         <v>4.3127637680166822E-2</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R30" si="6">B44</f>
+      <c r="Q27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" ref="R27:R30" si="12">B44</f>
         <v>0.17797625585123411</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S30" si="7">B64</f>
+      <c r="S27" s="8">
+        <f t="shared" ref="S27:S30" si="13">B64</f>
         <v>0.30983770312089021</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" ref="T27:T30" si="8">R27-S27</f>
-        <v>-0.1318614472696561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q28" s="1" t="s">
+      <c r="T27" s="9">
+        <f t="shared" ref="T27:T31" si="14">S27-R27</f>
+        <v>0.1318614472696561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
+      <c r="R28" s="8">
+        <f t="shared" si="12"/>
         <v>0.25863016716506831</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
+      <c r="S28" s="8">
+        <f t="shared" si="13"/>
         <v>0.35471368671207559</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" si="8"/>
-        <v>-9.6083519547007279E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T28" s="9">
+        <f t="shared" si="14"/>
+        <v>9.6083519547007279E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -6014,23 +7077,23 @@
       <c r="K29" s="1">
         <v>6</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="6"/>
+      <c r="R29" s="8">
+        <f t="shared" si="12"/>
         <v>0.123226500665766</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
+      <c r="S29" s="8">
+        <f t="shared" si="13"/>
         <v>0.22434733981830729</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" si="8"/>
-        <v>-0.10112083915254129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10112083915254129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -6061,23 +7124,23 @@
       <c r="K30">
         <v>0.101635160761261</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="6"/>
+      <c r="R30" s="8">
+        <f t="shared" si="12"/>
         <v>0.13260458910111469</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="7"/>
+      <c r="S30" s="8">
+        <f t="shared" si="13"/>
         <v>0.1444420614579924</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="8"/>
-        <v>-1.183747235687771E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" s="9">
+        <f t="shared" si="14"/>
+        <v>1.183747235687771E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -6108,23 +7171,23 @@
       <c r="K31">
         <v>0.3210402065836776</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="10">
         <f>AVERAGE(R26:R30)</f>
         <v>0.19610968203155488</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="10">
         <f>AVERAGE(S26:S30)</f>
         <v>0.29309995021655866</v>
       </c>
-      <c r="T31" s="7">
-        <f>R31-S31</f>
-        <v>-9.6990268185003781E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31" s="11">
+        <f t="shared" si="14"/>
+        <v>9.6990268185003781E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -6187,13 +7250,13 @@
       <c r="K33">
         <v>0.1079466268420219</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -6231,20 +7294,20 @@
       <c r="K34">
         <v>0.1</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34">
+      <c r="Q34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="8">
         <f>B50</f>
         <v>0.60655737704918034</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="8">
         <f>B70</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="T34" s="6">
-        <f>R34-S34</f>
-        <v>-4.0501446480231462E-2</v>
+      <c r="T34" s="9">
+        <f>S34-R34</f>
+        <v>4.0501446480231462E-2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -6278,20 +7341,20 @@
       <c r="K35">
         <v>0.24937127918733809</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R35">
-        <f t="shared" ref="R35:R43" si="9">B51</f>
+      <c r="R35" s="8">
+        <f t="shared" ref="R35:R43" si="15">B51</f>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S35">
-        <f t="shared" ref="S35:S43" si="10">B71</f>
+      <c r="S35" s="8">
+        <f t="shared" ref="S35:S43" si="16">B71</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T35" s="6">
-        <f t="shared" ref="T35:T44" si="11">R35-S35</f>
-        <v>-0.10896817743490839</v>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35:T44" si="17">S35-R35</f>
+        <v>0.10896817743490839</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6301,20 +7364,20 @@
       <c r="B36">
         <v>0.69387755102040816</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
+      <c r="R36" s="8">
+        <f t="shared" si="15"/>
         <v>0.52459016393442626</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
+      <c r="S36" s="8">
+        <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="T36" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.18129218900675026</v>
+      <c r="T36" s="9">
+        <f t="shared" si="17"/>
+        <v>0.18129218900675026</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6324,20 +7387,20 @@
       <c r="B37">
         <v>0.68707482993197277</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
+      <c r="R37" s="8">
+        <f t="shared" si="15"/>
         <v>0.5901639344262295</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
+      <c r="S37" s="8">
+        <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="T37" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.11571841851494702</v>
+      <c r="T37" s="9">
+        <f t="shared" si="17"/>
+        <v>0.11571841851494702</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -6347,20 +7410,20 @@
       <c r="B38">
         <v>0.72108843537414968</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
+      <c r="R38" s="8">
+        <f t="shared" si="15"/>
         <v>0.60655737704918034</v>
       </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
+      <c r="S38" s="8">
+        <f t="shared" si="16"/>
         <v>0.6588235294117647</v>
       </c>
-      <c r="T38" s="6">
-        <f t="shared" si="11"/>
-        <v>-5.2266152362584362E-2</v>
+      <c r="T38" s="9">
+        <f t="shared" si="17"/>
+        <v>5.2266152362584362E-2</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -6370,57 +7433,57 @@
       <c r="B39">
         <v>0.71428573131561279</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="9"/>
+      <c r="R39" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="10"/>
+      <c r="S39" s="8">
+        <f t="shared" si="16"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="T39" s="10">
-        <f t="shared" si="11"/>
-        <v>-8.5438765670202588E-2</v>
+      <c r="T39" s="9">
+        <f t="shared" si="17"/>
+        <v>8.5438765670202588E-2</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="9"/>
+      <c r="R40" s="8">
+        <f t="shared" si="15"/>
         <v>0.60655737704918034</v>
       </c>
-      <c r="S40">
-        <f t="shared" si="10"/>
+      <c r="S40" s="8">
+        <f t="shared" si="16"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="T40" s="6">
-        <f t="shared" si="11"/>
-        <v>-9.9324975891996181E-2</v>
+      <c r="T40" s="9">
+        <f t="shared" si="17"/>
+        <v>9.9324975891996181E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="9"/>
+      <c r="R41" s="8">
+        <f t="shared" si="15"/>
         <v>0.57377049180327866</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="10"/>
+      <c r="S41" s="8">
+        <f t="shared" si="16"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="T41" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.20270009643201548</v>
+      <c r="T41" s="9">
+        <f t="shared" si="17"/>
+        <v>0.20270009643201548</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -6454,20 +7517,20 @@
       <c r="L42" s="1">
         <v>7</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="9"/>
+      <c r="R42" s="8">
+        <f t="shared" si="15"/>
         <v>0.63934426229508201</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="10"/>
+      <c r="S42" s="8">
+        <f t="shared" si="16"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="T42" s="6">
-        <f t="shared" si="11"/>
-        <v>-9.0067502410800304E-2</v>
+      <c r="T42" s="9">
+        <f t="shared" si="17"/>
+        <v>9.0067502410800304E-2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -6504,20 +7567,20 @@
       <c r="L43">
         <v>5.6567125712366139E-3</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="9"/>
+      <c r="R43" s="8">
+        <f t="shared" si="15"/>
         <v>0.5245901346206665</v>
       </c>
-      <c r="S43">
-        <f t="shared" si="10"/>
+      <c r="S43" s="8">
+        <f t="shared" si="16"/>
         <v>0.81176471710205078</v>
       </c>
-      <c r="T43" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.28717458248138428</v>
+      <c r="T43" s="9">
+        <f t="shared" si="17"/>
+        <v>0.28717458248138428</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -6554,20 +7617,20 @@
       <c r="L44">
         <v>5.2121172859516153E-2</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="10">
         <f>AVERAGE(R34:R43)</f>
         <v>0.59836065280632889</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="10">
         <f>AVERAGE(S34:S43)</f>
         <v>0.72470588347491094</v>
       </c>
-      <c r="T44" s="7">
-        <f t="shared" si="11"/>
-        <v>-0.12634523066858205</v>
+      <c r="T44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.12634523066858205</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -6639,7 +7702,7 @@
       <c r="L46">
         <v>7.8673720359802246E-2</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6677,13 +7740,13 @@
       <c r="L47">
         <v>3.5627590275071827E-2</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T47" s="5" t="s">
@@ -6691,20 +7754,20 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="8">
         <f>B63</f>
         <v>0.4321589599735276</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="8">
         <f>B83</f>
         <v>0.43242169745207559</v>
       </c>
-      <c r="T48" s="6">
-        <f>R48-S48</f>
-        <v>-2.627374785479919E-4</v>
+      <c r="T48" s="9">
+        <f>S48-R48</f>
+        <v>2.627374785479919E-4</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6738,20 +7801,20 @@
       <c r="L49" s="1">
         <v>7</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49">
+      <c r="Q49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="8">
         <f>B64</f>
         <v>0.30983770312089021</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="8">
         <f>B84</f>
         <v>0.38276279127885299</v>
       </c>
-      <c r="T49" s="6">
-        <f t="shared" ref="T49:T66" si="12">R49-S49</f>
-        <v>-7.2925088157962781E-2</v>
+      <c r="T49" s="9">
+        <f t="shared" ref="T49:T53" si="18">S49-R49</f>
+        <v>7.2925088157962781E-2</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6788,20 +7851,20 @@
       <c r="L50">
         <v>0.10231836704011819</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="8">
         <f>B65</f>
         <v>0.35471368671207559</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="8">
         <f>B85</f>
         <v>0.33460312420326799</v>
       </c>
-      <c r="T50" s="6">
-        <f t="shared" si="12"/>
-        <v>2.0110562508807606E-2</v>
+      <c r="T50" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.0110562508807606E-2</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -6838,20 +7901,20 @@
       <c r="L51">
         <v>0.2732628486663829</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="8">
         <f>B66</f>
         <v>0.22434733981830729</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="8">
         <f>B86</f>
         <v>0.32420572287091631</v>
       </c>
-      <c r="T51" s="6">
-        <f t="shared" si="12"/>
-        <v>-9.9858383052609023E-2</v>
+      <c r="T51" s="9">
+        <f t="shared" si="18"/>
+        <v>9.9858383052609023E-2</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -6888,20 +7951,20 @@
       <c r="L52">
         <v>6.4125278520515028E-2</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="8">
         <f>B67</f>
         <v>0.1444420614579924</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="8">
         <f>B87</f>
         <v>0.31990185454933939</v>
       </c>
-      <c r="T52" s="6">
-        <f t="shared" si="12"/>
-        <v>-0.17545979309134699</v>
+      <c r="T52" s="9">
+        <f t="shared" si="18"/>
+        <v>0.17545979309134699</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -6938,20 +8001,20 @@
       <c r="L53">
         <v>0.1033611968159676</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="7">
         <f>AVERAGE(R48:R52)</f>
         <v>0.29309995021655866</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="7">
         <f>AVERAGE(S48:S52)</f>
         <v>0.35877903807089045</v>
       </c>
-      <c r="T53" s="7">
-        <f t="shared" si="12"/>
-        <v>-6.5679087854331797E-2</v>
+      <c r="T53" s="11">
+        <f t="shared" si="18"/>
+        <v>6.5679087854331797E-2</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -7023,13 +8086,13 @@
       <c r="L55">
         <v>0.36875368406171449</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T55" s="5" t="s">
@@ -7043,20 +8106,20 @@
       <c r="B56">
         <v>0.60655737704918034</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R56">
-        <f t="shared" ref="R56:R65" si="13">B70</f>
+      <c r="Q56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56:R65" si="19">B70</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="S56">
-        <f t="shared" ref="S56:S65" si="14">B90</f>
+      <c r="S56" s="8">
+        <f t="shared" ref="S56:S65" si="20">B90</f>
         <v>0.72941176470588232</v>
       </c>
-      <c r="T56" s="6">
-        <f t="shared" si="12"/>
-        <v>-8.2352941176470518E-2</v>
+      <c r="T56" s="9">
+        <f>S56-R56</f>
+        <v>8.2352941176470518E-2</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -7066,20 +8129,20 @@
       <c r="B57">
         <v>0.57377049180327866</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="13"/>
+      <c r="R57" s="8">
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="14"/>
+      <c r="S57" s="8">
+        <f t="shared" si="20"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="T57" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.176470588235301E-2</v>
+      <c r="T57" s="9">
+        <f t="shared" ref="T57:T66" si="21">S57-R57</f>
+        <v>1.176470588235301E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -7089,20 +8152,20 @@
       <c r="B58">
         <v>0.63934426229508201</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="13"/>
+      <c r="R58" s="8">
+        <f t="shared" si="19"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="14"/>
+      <c r="S58" s="8">
+        <f t="shared" si="20"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="T58" s="6">
-        <f t="shared" si="12"/>
-        <v>1.176470588235301E-2</v>
+      <c r="T58" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.176470588235301E-2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -7112,57 +8175,57 @@
       <c r="B59">
         <v>0.5245901346206665</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="13"/>
+      <c r="R59" s="8">
+        <f t="shared" si="19"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="14"/>
+      <c r="S59" s="8">
+        <f t="shared" si="20"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="T59" s="6">
-        <f t="shared" si="12"/>
-        <v>1.176470588235301E-2</v>
+      <c r="T59" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.176470588235301E-2</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="13"/>
+      <c r="R60" s="8">
+        <f t="shared" si="19"/>
         <v>0.6588235294117647</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="14"/>
+      <c r="S60" s="8">
+        <f t="shared" si="20"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="T60" s="6">
-        <f t="shared" si="12"/>
-        <v>1.1764705882352899E-2</v>
+      <c r="T60" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="13"/>
+      <c r="R61" s="8">
+        <f t="shared" si="19"/>
         <v>0.74117647058823533</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="14"/>
+      <c r="S61" s="8">
+        <f t="shared" si="20"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T61" s="6">
-        <f t="shared" si="12"/>
-        <v>-2.3529411764705799E-2</v>
+      <c r="T61" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3529411764705799E-2</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -7193,20 +8256,20 @@
       <c r="K62" s="1">
         <v>6</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="13"/>
+      <c r="R62" s="8">
+        <f t="shared" si="19"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="14"/>
+      <c r="S62" s="8">
+        <f t="shared" si="20"/>
         <v>0.71764705882352942</v>
       </c>
-      <c r="T62" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.1764705882352899E-2</v>
+      <c r="T62" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -7240,20 +8303,20 @@
       <c r="K63">
         <v>-4.2657947923893121E-4</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="13"/>
+      <c r="R63" s="8">
+        <f t="shared" si="19"/>
         <v>0.77647058823529413</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="14"/>
+      <c r="S63" s="8">
+        <f t="shared" si="20"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="T63" s="6">
-        <f t="shared" si="12"/>
-        <v>1.176470588235301E-2</v>
+      <c r="T63" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.176470588235301E-2</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -7287,20 +8350,20 @@
       <c r="K64">
         <v>0.1167863967488053</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R64">
-        <f t="shared" si="13"/>
+      <c r="R64" s="8">
+        <f t="shared" si="19"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="14"/>
+      <c r="S64" s="8">
+        <f t="shared" si="20"/>
         <v>0.71764705882352942</v>
       </c>
-      <c r="T64" s="6">
-        <f t="shared" si="12"/>
-        <v>1.1764705882352899E-2</v>
+      <c r="T64" s="9">
+        <f t="shared" si="21"/>
+        <v>-1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -7334,20 +8397,20 @@
       <c r="K65">
         <v>7.9159403269843873E-2</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
+      <c r="R65" s="8">
+        <f t="shared" si="19"/>
         <v>0.81176471710205078</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="14"/>
+      <c r="S65" s="8">
+        <f t="shared" si="20"/>
         <v>0.70588237047195435</v>
       </c>
-      <c r="T65" s="6">
-        <f t="shared" si="12"/>
-        <v>0.10588234663009644</v>
+      <c r="T65" s="9">
+        <f t="shared" si="21"/>
+        <v>-0.10588234663009644</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -7381,20 +8444,20 @@
       <c r="K66">
         <v>9.9651478230953217E-2</v>
       </c>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R66" s="11">
+      <c r="R66" s="7">
         <f>AVERAGE(R56:R65)</f>
         <v>0.72470588347491094</v>
       </c>
-      <c r="S66" s="11">
+      <c r="S66" s="7">
         <f>AVERAGE(S56:S65)</f>
         <v>0.72117647234131321</v>
       </c>
-      <c r="T66" s="7">
-        <f t="shared" si="12"/>
-        <v>3.5294111335977263E-3</v>
+      <c r="T66" s="11">
+        <f t="shared" si="21"/>
+        <v>-3.5294111335977263E-3</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -8169,7 +9232,37 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X11:AA11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9349,25 +10442,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9841BAAE-580A-4C06-ACD1-FB93700AF599}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="8"/>
+    <col min="19" max="19" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.4140625" style="13" customWidth="1"/>
+    <col min="25" max="27" width="12.75" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9386,11 +10482,17 @@
       <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9412,20 +10514,32 @@
       <c r="H3">
         <v>4.6592139367806552E-5</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9447,23 +10561,38 @@
       <c r="H4">
         <v>0.2467048674791478</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="8">
         <f>B3</f>
         <v>-2.095218603066118E-2</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="8">
         <f>B23</f>
         <v>2.5130283137006711E-2</v>
       </c>
-      <c r="T4" s="6">
-        <f>R4-S4</f>
-        <v>-4.6082469167667894E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4" s="9">
+        <f>S4-R4</f>
+        <v>4.6082469167667894E-2</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>T4</f>
+        <v>4.6082469167667894E-2</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>T26</f>
+        <v>2.5646221549683434E-2</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>T48</f>
+        <v>-1.0584639290352582E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9485,23 +10614,38 @@
       <c r="H5">
         <v>0.27902800049280863</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" ref="R5:R8" si="0">B4</f>
         <v>-0.13385205135783981</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="8">
         <f t="shared" ref="S5:S8" si="1">B24</f>
         <v>-6.8322971910933727E-2</v>
       </c>
-      <c r="T5" s="6">
-        <f t="shared" ref="T5:T9" si="2">R5-S5</f>
-        <v>-6.5529079446906086E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="9">
+        <f t="shared" ref="T5:T9" si="2">S5-R5</f>
+        <v>6.5529079446906086E-2</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" ref="Y5:Y9" si="3">T5</f>
+        <v>6.5529079446906086E-2</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" ref="Z5:Z9" si="4">T27</f>
+        <v>-0.16086725561484699</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA9" si="5">T49</f>
+        <v>4.5047763519239344E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9523,23 +10667,38 @@
       <c r="H6">
         <v>0.27041813731193542</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="8">
         <f t="shared" si="0"/>
         <v>-0.11712987986019099</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="8">
         <f t="shared" si="1"/>
         <v>-0.18504586459848199</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="9">
         <f t="shared" si="2"/>
-        <v>6.7915984738290996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-6.7915984738290996E-2</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="3"/>
+        <v>-6.7915984738290996E-2</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.23987552430854633</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="5"/>
+        <v>3.0029431954459201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9561,40 +10720,70 @@
       <c r="H7">
         <v>0.18253145838057969</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
         <v>-0.18317176599971119</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <f t="shared" si="1"/>
         <v>-0.18387725386871079</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <f t="shared" si="2"/>
-        <v>7.0548786899959914E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q8" s="1" t="s">
+        <v>-7.0548786899959914E-4</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="3"/>
+        <v>-7.0548786899959914E-4</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.31771506206782252</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0597812733380618E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <f t="shared" si="0"/>
         <v>-1.5566095216842161E-2</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <f t="shared" si="1"/>
         <v>1.694228326056357E-2</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="9">
         <f t="shared" si="2"/>
-        <v>-3.2508378477405731E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.2508378477405731E-2</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="3"/>
+        <v>3.2508378477405731E-2</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="4"/>
+        <v>-1.5640657306237312E-2</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="5"/>
+        <v>-9.7776178388184788E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9613,23 +10802,38 @@
       <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="10">
         <f>AVERAGE(R4:R8)</f>
         <v>-9.4134395693049072E-2</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="10">
         <f>AVERAGE(S4:S8)</f>
         <v>-7.9034704796111244E-2</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="11">
         <f t="shared" si="2"/>
-        <v>-1.5099690896937829E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.5099690896937829E-2</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5099690896937829E-2</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="4"/>
+        <v>-0.14169045554955395</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.3062550215581614E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -9652,7 +10856,7 @@
         <v>0.24138474700653001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -9674,20 +10878,26 @@
       <c r="H11">
         <v>9.1192051318975106E-2</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9709,23 +10919,35 @@
       <c r="H12">
         <v>0.22921519120913131</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="8">
         <f>B10</f>
         <v>0.5374149659863946</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="8">
         <f>B30</f>
         <v>0.59183673469387754</v>
       </c>
-      <c r="T12" s="6">
-        <f>R12-S12</f>
-        <v>-5.4421768707482943E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" s="9">
+        <f>S12-R12</f>
+        <v>5.4421768707482943E-2</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -9747,23 +10969,38 @@
       <c r="H13">
         <v>0.22992072999477389</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R21" si="3">B11</f>
+      <c r="R13" s="8">
+        <f t="shared" ref="R13:R21" si="6">B11</f>
         <v>0.44897959183673469</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13:S21" si="4">B31</f>
+      <c r="S13" s="8">
+        <f t="shared" ref="S13:S21" si="7">B31</f>
         <v>0.61904761904761907</v>
       </c>
-      <c r="T13" s="6">
-        <f t="shared" ref="T13:T22" si="5">R13-S13</f>
-        <v>-0.17006802721088438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" s="9">
+        <f>S13-R13</f>
+        <v>0.17006802721088438</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>T12</f>
+        <v>5.4421768707482943E-2</v>
+      </c>
+      <c r="Z13" s="16">
+        <f>T34</f>
+        <v>-5.3230472516875627E-2</v>
+      </c>
+      <c r="AA13" s="16">
+        <f>T56</f>
+        <v>7.0588235294117729E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -9785,23 +11022,38 @@
       <c r="H14">
         <v>0.3</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
+      <c r="R14" s="8">
+        <f t="shared" si="6"/>
         <v>0.49659863945578231</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
+      <c r="S14" s="8">
+        <f t="shared" si="7"/>
         <v>0.5374149659863946</v>
       </c>
-      <c r="T14" s="6">
-        <f t="shared" si="5"/>
-        <v>-4.081632653061229E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" s="9">
+        <f t="shared" ref="T14:T22" si="8">S14-R14</f>
+        <v>4.081632653061229E-2</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" ref="Y14:Y23" si="9">T13</f>
+        <v>0.17006802721088438</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" ref="Z14:Z23" si="10">T35</f>
+        <v>0.19305689488910316</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" ref="AA14:AA23" si="11">T57</f>
+        <v>-2.352941176470591E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -9823,152 +11075,257 @@
       <c r="H15">
         <v>1.9820174174489669E-4</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
+      <c r="R15" s="8">
+        <f t="shared" si="6"/>
         <v>0.53061224489795922</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
+      <c r="S15" s="8">
+        <f t="shared" si="7"/>
         <v>0.57823129251700678</v>
       </c>
-      <c r="T15" s="6">
-        <f t="shared" si="5"/>
-        <v>-4.7619047619047561E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="9">
+        <f t="shared" si="8"/>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="9"/>
+        <v>4.081632653061229E-2</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="10"/>
+        <v>-7.926711668273867E-2</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="11"/>
+        <v>-2.3529411764705799E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16">
         <v>0.53061224489795922</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
+      <c r="R16" s="8">
+        <f t="shared" si="6"/>
         <v>0.49659863945578231</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
+      <c r="S16" s="8">
+        <f t="shared" si="7"/>
         <v>0.53061224489795922</v>
       </c>
-      <c r="T16" s="6">
-        <f t="shared" si="5"/>
-        <v>-3.4013605442176909E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16" s="9">
+        <f t="shared" si="8"/>
+        <v>3.4013605442176909E-2</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="9"/>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="10"/>
+        <v>-9.5660559305689508E-2</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="11"/>
+        <v>-8.2352941176470462E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17">
         <v>0.46938775510204078</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
+      <c r="R17" s="8">
+        <f t="shared" si="6"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
+      <c r="S17" s="8">
+        <f t="shared" si="7"/>
         <v>0.60544217687074831</v>
       </c>
-      <c r="T17" s="6">
-        <f t="shared" si="5"/>
-        <v>-8.1632653061224469E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17" s="9">
+        <f t="shared" si="8"/>
+        <v>8.1632653061224469E-2</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="9"/>
+        <v>3.4013605442176909E-2</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="10"/>
+        <v>5.207328833172653E-3</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="11"/>
+        <v>2.3529411764705799E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18">
         <v>0.49659863945578231</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
+      <c r="R18" s="8">
+        <f t="shared" si="6"/>
         <v>0.53061224489795922</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
+      <c r="S18" s="8">
+        <f t="shared" si="7"/>
         <v>0.59863945578231292</v>
       </c>
-      <c r="T18" s="6">
-        <f t="shared" si="5"/>
-        <v>-6.8027210884353706E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18" s="9">
+        <f t="shared" si="8"/>
+        <v>6.8027210884353706E-2</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="9"/>
+        <v>8.1632653061224469E-2</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="10"/>
+        <v>0.12034715525554485</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="11"/>
+        <v>3.5294117647058809E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19">
         <v>0.55782312154769897</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="3"/>
+      <c r="R19" s="8">
+        <f t="shared" si="6"/>
         <v>0.46938775510204078</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
+      <c r="S19" s="8">
+        <f t="shared" si="7"/>
         <v>0.62585034013605445</v>
       </c>
-      <c r="T19" s="6">
-        <f t="shared" si="5"/>
-        <v>-0.15646258503401367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q20" s="1" t="s">
+      <c r="T19" s="9">
+        <f t="shared" si="8"/>
+        <v>0.15646258503401367</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="16">
+        <f t="shared" si="9"/>
+        <v>6.8027210884353706E-2</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="10"/>
+        <v>0.18592092574734809</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="11"/>
+        <v>-2.352941176470591E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
+      <c r="R20" s="8">
+        <f t="shared" si="6"/>
         <v>0.49659863945578231</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
+      <c r="S20" s="8">
+        <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="T20" s="6">
-        <f t="shared" si="5"/>
-        <v>-7.4829931972789088E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="9">
+        <f t="shared" si="8"/>
+        <v>7.4829931972789088E-2</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.15646258503401367</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="10"/>
+        <v>0.12748312439729992</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="11"/>
+        <v>-5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="3"/>
+      <c r="R21" s="8">
+        <f t="shared" si="6"/>
         <v>0.55782312154769897</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="4"/>
+      <c r="S21" s="8">
+        <f t="shared" si="7"/>
         <v>0.61224490404129028</v>
       </c>
-      <c r="T21" s="6">
-        <f t="shared" si="5"/>
-        <v>-5.4421782493591309E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T21" s="9">
+        <f t="shared" si="8"/>
+        <v>5.4421782493591309E-2</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="16">
+        <f t="shared" si="9"/>
+        <v>7.4829931972789088E-2</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="10"/>
+        <v>-6.171648987463807E-3</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="11"/>
+        <v>4.7058823529411709E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -9999,23 +11356,38 @@
       <c r="L22" s="1">
         <v>7</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="10">
         <f>AVERAGE(R12:R21)</f>
         <v>0.50884353664456583</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="10">
         <f>AVERAGE(S12:S21)</f>
         <v>0.58707483054018339</v>
       </c>
-      <c r="T22" s="7">
-        <f t="shared" si="5"/>
-        <v>-7.823129389561756E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="11">
+        <f t="shared" si="8"/>
+        <v>7.823129389561756E-2</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="9"/>
+        <v>5.4421782493591309E-2</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="10"/>
+        <v>5.1880478858947754E-2</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="11"/>
+        <v>0.10588234663009644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -10049,8 +11421,23 @@
       <c r="L23">
         <v>-4.749350809154298E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="18">
+        <f t="shared" si="9"/>
+        <v>7.823129389561756E-2</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="10"/>
+        <v>4.4956611048864947E-2</v>
+      </c>
+      <c r="AA23" s="18">
+        <f t="shared" si="11"/>
+        <v>7.0588228983037293E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -10084,11 +11471,11 @@
       <c r="L24">
         <v>0.14712688010532371</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -10122,20 +11509,20 @@
       <c r="L25">
         <v>0.13875145097005881</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -10169,23 +11556,23 @@
       <c r="L26">
         <v>0.16230277717113489</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="8">
         <f>B43</f>
         <v>4.7676587624671862E-2</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="8">
         <f>B63</f>
         <v>7.3322809174355297E-2</v>
       </c>
-      <c r="T26" s="6">
-        <f>R26-S26</f>
-        <v>-2.5646221549683434E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26" s="9">
+        <f>S26-R26</f>
+        <v>2.5646221549683434E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -10219,40 +11606,40 @@
       <c r="L27">
         <v>0.1183235948485561</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R30" si="6">B44</f>
+      <c r="Q27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" ref="R27:R30" si="12">B44</f>
         <v>0.15921154120642261</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S30" si="7">B64</f>
+      <c r="S27" s="8">
+        <f t="shared" ref="S27:S30" si="13">B64</f>
         <v>-1.65571440842438E-3</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" ref="T27:T30" si="8">R27-S27</f>
-        <v>0.16086725561484699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q28" s="1" t="s">
+      <c r="T27" s="9">
+        <f t="shared" ref="T27:T31" si="14">S27-R27</f>
+        <v>-0.16086725561484699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
+      <c r="R28" s="8">
+        <f t="shared" si="12"/>
         <v>8.3282405177245944E-2</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
+      <c r="S28" s="8">
+        <f t="shared" si="13"/>
         <v>-0.15659311913130039</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" si="8"/>
-        <v>0.23987552430854633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T28" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.23987552430854633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -10283,23 +11670,23 @@
       <c r="L29" s="1">
         <v>7</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="6"/>
+      <c r="R29" s="8">
+        <f t="shared" si="12"/>
         <v>8.0742645273083613E-2</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
+      <c r="S29" s="8">
+        <f t="shared" si="13"/>
         <v>-0.2369724167947389</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" si="8"/>
-        <v>0.31771506206782252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.31771506206782252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -10333,23 +11720,23 @@
       <c r="L30">
         <v>0.23326803850867911</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="6"/>
+      <c r="R30" s="8">
+        <f t="shared" si="12"/>
         <v>3.9309463817860602E-2</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="7"/>
+      <c r="S30" s="8">
+        <f t="shared" si="13"/>
         <v>2.3668806511623289E-2</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="8"/>
-        <v>1.5640657306237312E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" s="9">
+        <f t="shared" si="14"/>
+        <v>-1.5640657306237312E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -10383,23 +11770,23 @@
       <c r="L31">
         <v>-0.74451805441579488</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="10">
         <f>AVERAGE(R26:R30)</f>
         <v>8.2044528619856921E-2</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="10">
         <f>AVERAGE(S26:S30)</f>
         <v>-5.9645926929697016E-2</v>
       </c>
-      <c r="T31" s="7">
-        <f>R31-S31</f>
-        <v>0.14169045554955395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.14169045554955395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -10468,13 +11855,13 @@
       <c r="L33">
         <v>0.13883548974990839</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -10515,20 +11902,20 @@
       <c r="L34">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34">
+      <c r="Q34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="8">
         <f>B50</f>
         <v>0.68852459016393441</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="8">
         <f>B70</f>
         <v>0.63529411764705879</v>
       </c>
-      <c r="T34" s="6">
-        <f>R34-S34</f>
-        <v>5.3230472516875627E-2</v>
+      <c r="T34" s="9">
+        <f>S34-R34</f>
+        <v>-5.3230472516875627E-2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -10565,20 +11952,20 @@
       <c r="L35">
         <v>-0.89114269536822788</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R35">
-        <f t="shared" ref="R35:R43" si="9">B51</f>
+      <c r="R35" s="8">
+        <f t="shared" ref="R35:R43" si="15">B51</f>
         <v>0.52459016393442626</v>
       </c>
-      <c r="S35">
-        <f t="shared" ref="S35:S43" si="10">B71</f>
+      <c r="S35" s="8">
+        <f t="shared" ref="S35:S43" si="16">B71</f>
         <v>0.71764705882352942</v>
       </c>
-      <c r="T35" s="6">
-        <f t="shared" ref="T35:T44" si="11">R35-S35</f>
-        <v>-0.19305689488910316</v>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35:T44" si="17">S35-R35</f>
+        <v>0.19305689488910316</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -10588,20 +11975,20 @@
       <c r="B36">
         <v>0.59863945578231292</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
+      <c r="R36" s="8">
+        <f t="shared" si="15"/>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
+      <c r="S36" s="8">
+        <f t="shared" si="16"/>
         <v>0.57647058823529407</v>
       </c>
-      <c r="T36" s="6">
-        <f t="shared" si="11"/>
-        <v>7.926711668273867E-2</v>
+      <c r="T36" s="9">
+        <f t="shared" si="17"/>
+        <v>-7.926711668273867E-2</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -10611,20 +11998,20 @@
       <c r="B37">
         <v>0.62585034013605445</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
+      <c r="R37" s="8">
+        <f t="shared" si="15"/>
         <v>0.67213114754098358</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
+      <c r="S37" s="8">
+        <f t="shared" si="16"/>
         <v>0.57647058823529407</v>
       </c>
-      <c r="T37" s="6">
-        <f t="shared" si="11"/>
-        <v>9.5660559305689508E-2</v>
+      <c r="T37" s="9">
+        <f t="shared" si="17"/>
+        <v>-9.5660559305689508E-2</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -10634,20 +12021,20 @@
       <c r="B38">
         <v>0.5714285714285714</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
+      <c r="R38" s="8">
+        <f t="shared" si="15"/>
         <v>0.60655737704918034</v>
       </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
+      <c r="S38" s="8">
+        <f t="shared" si="16"/>
         <v>0.61176470588235299</v>
       </c>
-      <c r="T38" s="6">
-        <f t="shared" si="11"/>
-        <v>-5.207328833172653E-3</v>
+      <c r="T38" s="9">
+        <f t="shared" si="17"/>
+        <v>5.207328833172653E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -10657,57 +12044,57 @@
       <c r="B39">
         <v>0.61224490404129028</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="9"/>
+      <c r="R39" s="8">
+        <f t="shared" si="15"/>
         <v>0.57377049180327866</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="10"/>
+      <c r="S39" s="8">
+        <f t="shared" si="16"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="T39" s="10">
-        <f t="shared" si="11"/>
-        <v>-0.12034715525554485</v>
+      <c r="T39" s="9">
+        <f t="shared" si="17"/>
+        <v>0.12034715525554485</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="9"/>
+      <c r="R40" s="8">
+        <f t="shared" si="15"/>
         <v>0.50819672131147542</v>
       </c>
-      <c r="S40">
-        <f t="shared" si="10"/>
+      <c r="S40" s="8">
+        <f t="shared" si="16"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="T40" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.18592092574734809</v>
+      <c r="T40" s="9">
+        <f t="shared" si="17"/>
+        <v>0.18592092574734809</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="9"/>
+      <c r="R41" s="8">
+        <f t="shared" si="15"/>
         <v>0.5901639344262295</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="10"/>
+      <c r="S41" s="8">
+        <f t="shared" si="16"/>
         <v>0.71764705882352942</v>
       </c>
-      <c r="T41" s="6">
-        <f t="shared" si="11"/>
-        <v>-0.12748312439729992</v>
+      <c r="T41" s="9">
+        <f t="shared" si="17"/>
+        <v>0.12748312439729992</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -10744,20 +12131,20 @@
       <c r="M42" s="1">
         <v>8</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="9"/>
+      <c r="R42" s="8">
+        <f t="shared" si="15"/>
         <v>0.68852459016393441</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="10"/>
+      <c r="S42" s="8">
+        <f t="shared" si="16"/>
         <v>0.68235294117647061</v>
       </c>
-      <c r="T42" s="6">
-        <f t="shared" si="11"/>
-        <v>6.171648987463807E-3</v>
+      <c r="T42" s="9">
+        <f t="shared" si="17"/>
+        <v>-6.171648987463807E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -10797,20 +12184,20 @@
       <c r="M43">
         <v>4.8717818267571488E-6</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="9"/>
+      <c r="R43" s="8">
+        <f t="shared" si="15"/>
         <v>0.5245901346206665</v>
       </c>
-      <c r="S43">
-        <f t="shared" si="10"/>
+      <c r="S43" s="8">
+        <f t="shared" si="16"/>
         <v>0.57647061347961426</v>
       </c>
-      <c r="T43" s="6">
-        <f t="shared" si="11"/>
-        <v>-5.1880478858947754E-2</v>
+      <c r="T43" s="9">
+        <f t="shared" si="17"/>
+        <v>5.1880478858947754E-2</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -10850,20 +12237,20 @@
       <c r="M44">
         <v>7.259960086825705E-2</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="10">
         <f>AVERAGE(R34:R43)</f>
         <v>0.60327868559321418</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="10">
         <f>AVERAGE(S34:S43)</f>
         <v>0.64823529664207913</v>
       </c>
-      <c r="T44" s="7">
-        <f t="shared" si="11"/>
-        <v>-4.4956611048864947E-2</v>
+      <c r="T44" s="11">
+        <f t="shared" si="17"/>
+        <v>4.4956611048864947E-2</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -10941,7 +12328,7 @@
       <c r="M46">
         <v>9.1320917010307312E-2</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10982,13 +12369,13 @@
       <c r="M47">
         <v>8.6914631417333341E-2</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T47" s="5" t="s">
@@ -10996,20 +12383,20 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="8">
         <f>B63</f>
         <v>7.3322809174355297E-2</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="8">
         <f>B83</f>
         <v>6.2738169884002715E-2</v>
       </c>
-      <c r="T48" s="6">
-        <f>R48-S48</f>
-        <v>1.0584639290352582E-2</v>
+      <c r="T48" s="9">
+        <f>S48-R48</f>
+        <v>-1.0584639290352582E-2</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -11046,20 +12433,20 @@
       <c r="M49" s="1">
         <v>8</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49">
+      <c r="Q49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="8">
         <f>B64</f>
         <v>-1.65571440842438E-3</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="8">
         <f>B84</f>
         <v>4.3392049110814963E-2</v>
       </c>
-      <c r="T49" s="6">
-        <f t="shared" ref="T49:T66" si="12">R49-S49</f>
-        <v>-4.5047763519239344E-2</v>
+      <c r="T49" s="9">
+        <f t="shared" ref="T49:T53" si="18">S49-R49</f>
+        <v>4.5047763519239344E-2</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -11099,20 +12486,20 @@
       <c r="M50">
         <v>5.4959526664072472E-2</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="8">
         <f>B65</f>
         <v>-0.15659311913130039</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="8">
         <f>B85</f>
         <v>-0.12656368717684119</v>
       </c>
-      <c r="T50" s="6">
-        <f t="shared" si="12"/>
-        <v>-3.0029431954459201E-2</v>
+      <c r="T50" s="9">
+        <f t="shared" si="18"/>
+        <v>3.0029431954459201E-2</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -11152,20 +12539,20 @@
       <c r="M51">
         <v>0.22527503175415531</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="8">
         <f>B66</f>
         <v>-0.2369724167947389</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="8">
         <f>B86</f>
         <v>-0.22637460406135829</v>
       </c>
-      <c r="T51" s="6">
-        <f t="shared" si="12"/>
-        <v>-1.0597812733380618E-2</v>
+      <c r="T51" s="9">
+        <f t="shared" si="18"/>
+        <v>1.0597812733380618E-2</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -11205,20 +12592,20 @@
       <c r="M52">
         <v>5.5586127420998013E-2</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="8">
         <f>B67</f>
         <v>2.3668806511623289E-2</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="8">
         <f>B87</f>
         <v>1.3891188672804811E-2</v>
       </c>
-      <c r="T52" s="6">
-        <f t="shared" si="12"/>
-        <v>9.7776178388184788E-3</v>
+      <c r="T52" s="9">
+        <f t="shared" si="18"/>
+        <v>-9.7776178388184788E-3</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -11258,20 +12645,20 @@
       <c r="M53">
         <v>0.1062305867671967</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="7">
         <f>AVERAGE(R48:R52)</f>
         <v>-5.9645926929697016E-2</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="7">
         <f>AVERAGE(S48:S52)</f>
         <v>-4.6583376714115401E-2</v>
       </c>
-      <c r="T53" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.3062550215581614E-2</v>
+      <c r="T53" s="11">
+        <f t="shared" si="18"/>
+        <v>1.3062550215581614E-2</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -11349,13 +12736,13 @@
       <c r="M55">
         <v>0.32883791866714829</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T55" s="5" t="s">
@@ -11369,20 +12756,20 @@
       <c r="B56">
         <v>0.50819672131147542</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R56">
-        <f t="shared" ref="R56:R65" si="13">B70</f>
+      <c r="Q56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56:R65" si="19">B70</f>
         <v>0.63529411764705879</v>
       </c>
-      <c r="S56">
-        <f t="shared" ref="S56:S65" si="14">B90</f>
+      <c r="S56" s="8">
+        <f t="shared" ref="S56:S65" si="20">B90</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="T56" s="6">
-        <f t="shared" si="12"/>
-        <v>-7.0588235294117729E-2</v>
+      <c r="T56" s="9">
+        <f>S56-R56</f>
+        <v>7.0588235294117729E-2</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -11392,20 +12779,20 @@
       <c r="B57">
         <v>0.5901639344262295</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="13"/>
+      <c r="R57" s="8">
+        <f t="shared" si="19"/>
         <v>0.71764705882352942</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="14"/>
+      <c r="S57" s="8">
+        <f t="shared" si="20"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="T57" s="6">
-        <f t="shared" si="12"/>
-        <v>2.352941176470591E-2</v>
+      <c r="T57" s="9">
+        <f t="shared" ref="T57:T66" si="21">S57-R57</f>
+        <v>-2.352941176470591E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -11415,20 +12802,20 @@
       <c r="B58">
         <v>0.68852459016393441</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="13"/>
+      <c r="R58" s="8">
+        <f t="shared" si="19"/>
         <v>0.57647058823529407</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="14"/>
+      <c r="S58" s="8">
+        <f t="shared" si="20"/>
         <v>0.55294117647058827</v>
       </c>
-      <c r="T58" s="6">
-        <f t="shared" si="12"/>
-        <v>2.3529411764705799E-2</v>
+      <c r="T58" s="9">
+        <f t="shared" si="21"/>
+        <v>-2.3529411764705799E-2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -11438,57 +12825,57 @@
       <c r="B59">
         <v>0.5245901346206665</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="13"/>
+      <c r="R59" s="8">
+        <f t="shared" si="19"/>
         <v>0.57647058823529407</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="14"/>
+      <c r="S59" s="8">
+        <f t="shared" si="20"/>
         <v>0.49411764705882361</v>
       </c>
-      <c r="T59" s="6">
-        <f t="shared" si="12"/>
-        <v>8.2352941176470462E-2</v>
+      <c r="T59" s="9">
+        <f t="shared" si="21"/>
+        <v>-8.2352941176470462E-2</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="13"/>
+      <c r="R60" s="8">
+        <f t="shared" si="19"/>
         <v>0.61176470588235299</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="14"/>
+      <c r="S60" s="8">
+        <f t="shared" si="20"/>
         <v>0.63529411764705879</v>
       </c>
-      <c r="T60" s="6">
-        <f t="shared" si="12"/>
-        <v>-2.3529411764705799E-2</v>
+      <c r="T60" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3529411764705799E-2</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.2</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="13"/>
+      <c r="R61" s="8">
+        <f t="shared" si="19"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="14"/>
+      <c r="S61" s="8">
+        <f t="shared" si="20"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="T61" s="6">
-        <f t="shared" si="12"/>
-        <v>-3.5294117647058809E-2</v>
+      <c r="T61" s="9">
+        <f t="shared" si="21"/>
+        <v>3.5294117647058809E-2</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -11525,20 +12912,20 @@
       <c r="M62" s="1">
         <v>8</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="13"/>
+      <c r="R62" s="8">
+        <f t="shared" si="19"/>
         <v>0.69411764705882351</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="14"/>
+      <c r="S62" s="8">
+        <f t="shared" si="20"/>
         <v>0.6705882352941176</v>
       </c>
-      <c r="T62" s="6">
-        <f t="shared" si="12"/>
-        <v>2.352941176470591E-2</v>
+      <c r="T62" s="9">
+        <f t="shared" si="21"/>
+        <v>-2.352941176470591E-2</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -11578,20 +12965,20 @@
       <c r="M63">
         <v>2.012108060618899E-4</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="13"/>
+      <c r="R63" s="8">
+        <f t="shared" si="19"/>
         <v>0.71764705882352942</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="14"/>
+      <c r="S63" s="8">
+        <f t="shared" si="20"/>
         <v>0.6588235294117647</v>
       </c>
-      <c r="T63" s="6">
-        <f t="shared" si="12"/>
-        <v>5.8823529411764719E-2</v>
+      <c r="T63" s="9">
+        <f t="shared" si="21"/>
+        <v>-5.8823529411764719E-2</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -11631,20 +13018,20 @@
       <c r="M64">
         <v>0.10111054285346691</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R64">
-        <f t="shared" si="13"/>
+      <c r="R64" s="8">
+        <f t="shared" si="19"/>
         <v>0.68235294117647061</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="14"/>
+      <c r="S64" s="8">
+        <f t="shared" si="20"/>
         <v>0.72941176470588232</v>
       </c>
-      <c r="T64" s="6">
-        <f t="shared" si="12"/>
-        <v>-4.7058823529411709E-2</v>
+      <c r="T64" s="9">
+        <f t="shared" si="21"/>
+        <v>4.7058823529411709E-2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -11684,20 +13071,20 @@
       <c r="M65">
         <v>9.5045365762843767E-2</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
+      <c r="R65" s="8">
+        <f t="shared" si="19"/>
         <v>0.57647061347961426</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="14"/>
+      <c r="S65" s="8">
+        <f t="shared" si="20"/>
         <v>0.68235296010971069</v>
       </c>
-      <c r="T65" s="6">
-        <f t="shared" si="12"/>
-        <v>-0.10588234663009644</v>
+      <c r="T65" s="9">
+        <f t="shared" si="21"/>
+        <v>0.10588234663009644</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -11737,20 +13124,20 @@
       <c r="M66">
         <v>0.11296387761831279</v>
       </c>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R66" s="11">
+      <c r="R66" s="7">
         <f>AVERAGE(R56:R65)</f>
         <v>0.64823529664207913</v>
       </c>
-      <c r="S66" s="11">
+      <c r="S66" s="7">
         <f>AVERAGE(S56:S65)</f>
         <v>0.65529411954038286</v>
       </c>
-      <c r="T66" s="7">
-        <f t="shared" si="12"/>
-        <v>-7.0588228983037293E-3</v>
+      <c r="T66" s="11">
+        <f t="shared" si="21"/>
+        <v>7.0588228983037293E-3</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -12612,7 +13999,37 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X11:AA11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:AA22">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AA8">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
